--- a/new_modules/Summary_2022-08-03_L2A.xlsx
+++ b/new_modules/Summary_2022-08-03_L2A.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\Yerlan\Projects\Cow GPS Tracker\new_modules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Загон</t>
   </si>
@@ -26,6 +31,12 @@
   </si>
   <si>
     <t>Медианная</t>
+  </si>
+  <si>
+    <t>Геомет.сред.</t>
+  </si>
+  <si>
+    <t>Гармон.сред.</t>
   </si>
   <si>
     <t>Станд. откл.</t>
@@ -79,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,24 +143,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,9 +209,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,14 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,308 +500,362 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
         <v>1315.0868</v>
       </c>
-      <c r="C2">
-        <v>0.9866</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.0327</v>
-      </c>
-      <c r="F2">
-        <v>-3.4578</v>
-      </c>
-      <c r="G2">
-        <v>0.0041</v>
-      </c>
-      <c r="H2">
+      <c r="C2" s="2">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.27E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-3.4578000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J2" s="2">
         <v>13.8637</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0.7385</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="M2" s="2">
         <v>13.33</v>
       </c>
-      <c r="L2">
+      <c r="N2" s="2">
         <v>1.5484</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
         <v>1239.9286</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.9919</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.0329</v>
-      </c>
-      <c r="F3">
-        <v>-5.091</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-5.0910000000000002</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>28.5602</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="2">
+        <v>28.560199999999998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
         <v>0.7319</v>
       </c>
-      <c r="K3">
+      <c r="M3" s="2">
         <v>12.5</v>
       </c>
-      <c r="L3">
+      <c r="N3" s="2">
         <v>1.5484</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>848.2015</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>848.20150000000001</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.9909</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.0334</v>
-      </c>
-      <c r="F4">
-        <v>-4.7788</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-4.7788000000000004</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="2">
         <v>24.6402</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0.7352</v>
-      </c>
-      <c r="K4">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="M4" s="2">
         <v>8.56</v>
       </c>
-      <c r="L4">
+      <c r="N4" s="2">
         <v>1.5484</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>827.1528</v>
-      </c>
-      <c r="C5">
-        <v>0.8725000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.8598</v>
-      </c>
-      <c r="E5">
-        <v>0.09470000000000001</v>
-      </c>
-      <c r="F5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>827.15279999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="H5" s="2">
         <v>-0.11</v>
       </c>
-      <c r="G5">
-        <v>0.1684</v>
-      </c>
-      <c r="H5">
-        <v>-0.9661999999999999</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0.6398</v>
-      </c>
-      <c r="K5">
+      <c r="I5" s="2">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-0.96619999999999995</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="M5" s="2">
         <v>9.48</v>
       </c>
-      <c r="L5">
-        <v>0.3065</v>
+      <c r="N5" s="2">
+        <v>0.30649999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>1152.5117</v>
       </c>
-      <c r="C6">
-        <v>0.9118000000000001</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.9355</v>
       </c>
-      <c r="E6">
-        <v>0.0803</v>
-      </c>
-      <c r="F6">
-        <v>-0.9717</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-0.97170000000000001</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.1147</v>
       </c>
-      <c r="H6">
-        <v>0.0781</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.6518</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="2">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="M6" s="2">
         <v>12.64</v>
       </c>
-      <c r="L6">
-        <v>0.9771</v>
+      <c r="N6" s="2">
+        <v>0.97709999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>966.5679</v>
-      </c>
-      <c r="C7">
-        <v>0.9734</v>
-      </c>
-      <c r="D7">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.0406</v>
-      </c>
-      <c r="F7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>966.56790000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="H7" s="2">
         <v>-1.9899</v>
       </c>
-      <c r="G7">
-        <v>0.0414</v>
-      </c>
-      <c r="H7">
-        <v>4.3796</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.7594</v>
-      </c>
-      <c r="K7">
+      <c r="I7" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.3795999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="M7" s="2">
         <v>9.93</v>
       </c>
-      <c r="L7">
+      <c r="N7" s="2">
         <v>1.5263</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1086.5685</v>
-      </c>
-      <c r="C8">
-        <v>0.9736</v>
-      </c>
-      <c r="D8">
-        <v>0.9937</v>
-      </c>
-      <c r="E8">
-        <v>0.0366</v>
-      </c>
-      <c r="F8">
-        <v>-1.4329</v>
-      </c>
-      <c r="G8">
-        <v>0.0414</v>
-      </c>
-      <c r="H8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1086.5685000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1.4329000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="J8" s="2">
         <v>1.2097</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.8290999999999999</v>
-      </c>
-      <c r="K8">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.82909999999999995</v>
+      </c>
+      <c r="M8" s="2">
         <v>11.16</v>
       </c>
-      <c r="L8">
+      <c r="N8" s="2">
         <v>1.4923</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>7436.0176</v>
-      </c>
-      <c r="C9">
-        <v>0.9583</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.06909999999999999</v>
-      </c>
-      <c r="F9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7436.0176000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="H9" s="2">
         <v>-1.9136</v>
       </c>
-      <c r="G9">
-        <v>0.0585</v>
-      </c>
-      <c r="H9">
-        <v>3.0933</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.6398</v>
-      </c>
-      <c r="K9">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="2">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3.0933000000000002</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="M9" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N9" s="2">
         <v>8.9474</v>
       </c>
     </row>
